--- a/nr-add-puml/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/nr-add-puml/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-26T14:27:23+00:00</t>
+    <t>2024-08-26T14:39:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
